--- a/Setting/inputs/Setting.xlsx
+++ b/Setting/inputs/Setting.xlsx
@@ -631,8 +631,10 @@
       <c r="Y2" s="2" t="inlineStr"/>
       <c r="Z2" s="2" t="inlineStr"/>
       <c r="AA2" s="2" t="inlineStr"/>
-      <c r="AB2" s="2" t="n">
-        <v>0</v>
+      <c r="AB2" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AC2" s="2" t="inlineStr"/>
     </row>
@@ -692,8 +694,10 @@
       <c r="Y3" s="2" t="inlineStr"/>
       <c r="Z3" s="2" t="inlineStr"/>
       <c r="AA3" s="2" t="inlineStr"/>
-      <c r="AB3" s="2" t="n">
-        <v>0</v>
+      <c r="AB3" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AC3" s="2" t="inlineStr"/>
     </row>
@@ -753,8 +757,10 @@
       <c r="Y4" s="2" t="inlineStr"/>
       <c r="Z4" s="2" t="inlineStr"/>
       <c r="AA4" s="2" t="inlineStr"/>
-      <c r="AB4" s="2" t="n">
-        <v>0</v>
+      <c r="AB4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AC4" s="2" t="inlineStr"/>
     </row>
@@ -771,12 +777,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>specifically dependent continuant [BFO:0000020]</t>
+          <t>specifically dependent continuant</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention physical setting [BCIO:026000]</t>
+          <t>behaviour change intervention physical setting</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr"/>
@@ -799,7 +805,7 @@
       <c r="R5" s="2" t="inlineStr"/>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>JH</t>
+          <t>JH; BG</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
@@ -818,8 +824,10 @@
       <c r="Y5" s="2" t="inlineStr"/>
       <c r="Z5" s="2" t="inlineStr"/>
       <c r="AA5" s="2" t="inlineStr"/>
-      <c r="AB5" s="2" t="n">
-        <v>0</v>
+      <c r="AB5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AC5" s="2" t="inlineStr"/>
     </row>
@@ -883,8 +891,10 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="n">
-        <v>0</v>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AC6" t="inlineStr"/>
     </row>
@@ -940,8 +950,10 @@
       <c r="Y7" s="2" t="inlineStr"/>
       <c r="Z7" s="2" t="inlineStr"/>
       <c r="AA7" s="2" t="inlineStr"/>
-      <c r="AB7" s="2" t="n">
-        <v>0</v>
+      <c r="AB7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AC7" s="2" t="inlineStr"/>
     </row>
@@ -1001,8 +1013,10 @@
       <c r="Y8" s="2" t="inlineStr"/>
       <c r="Z8" s="2" t="inlineStr"/>
       <c r="AA8" s="2" t="inlineStr"/>
-      <c r="AB8" s="2" t="n">
-        <v>0</v>
+      <c r="AB8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AC8" s="2" t="inlineStr"/>
     </row>
@@ -1062,8 +1076,10 @@
       <c r="Y9" s="2" t="inlineStr"/>
       <c r="Z9" s="2" t="inlineStr"/>
       <c r="AA9" s="2" t="inlineStr"/>
-      <c r="AB9" s="2" t="n">
-        <v>0</v>
+      <c r="AB9" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AC9" s="2" t="inlineStr"/>
     </row>
@@ -1119,8 +1135,10 @@
       <c r="Y10" s="2" t="inlineStr"/>
       <c r="Z10" s="2" t="inlineStr"/>
       <c r="AA10" s="2" t="inlineStr"/>
-      <c r="AB10" s="2" t="n">
-        <v>0</v>
+      <c r="AB10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AC10" s="2" t="inlineStr"/>
     </row>
@@ -1180,8 +1198,10 @@
       <c r="Y11" s="2" t="inlineStr"/>
       <c r="Z11" s="2" t="inlineStr"/>
       <c r="AA11" s="2" t="inlineStr"/>
-      <c r="AB11" s="2" t="n">
-        <v>0</v>
+      <c r="AB11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AC11" s="2" t="inlineStr"/>
     </row>
@@ -1241,8 +1261,10 @@
       <c r="Y12" s="2" t="inlineStr"/>
       <c r="Z12" s="2" t="inlineStr"/>
       <c r="AA12" s="2" t="inlineStr"/>
-      <c r="AB12" s="2" t="n">
-        <v>0</v>
+      <c r="AB12" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AC12" s="2" t="inlineStr"/>
     </row>
@@ -1298,8 +1320,10 @@
       <c r="Y13" s="2" t="inlineStr"/>
       <c r="Z13" s="2" t="inlineStr"/>
       <c r="AA13" s="2" t="inlineStr"/>
-      <c r="AB13" s="2" t="n">
-        <v>0</v>
+      <c r="AB13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AC13" s="2" t="inlineStr"/>
     </row>
@@ -1363,8 +1387,10 @@
       <c r="Y14" s="2" t="inlineStr"/>
       <c r="Z14" s="2" t="inlineStr"/>
       <c r="AA14" s="2" t="inlineStr"/>
-      <c r="AB14" s="2" t="n">
-        <v>0</v>
+      <c r="AB14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AC14" s="2" t="inlineStr"/>
     </row>
@@ -1420,8 +1446,10 @@
       <c r="Y15" s="2" t="inlineStr"/>
       <c r="Z15" s="2" t="inlineStr"/>
       <c r="AA15" s="2" t="inlineStr"/>
-      <c r="AB15" s="2" t="n">
-        <v>0</v>
+      <c r="AB15" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AC15" s="2" t="inlineStr"/>
     </row>
@@ -1481,8 +1509,10 @@
       <c r="Y16" s="2" t="inlineStr"/>
       <c r="Z16" s="2" t="inlineStr"/>
       <c r="AA16" s="2" t="inlineStr"/>
-      <c r="AB16" s="2" t="n">
-        <v>0</v>
+      <c r="AB16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AC16" s="2" t="inlineStr"/>
     </row>
@@ -1538,8 +1568,10 @@
       <c r="Y17" s="2" t="inlineStr"/>
       <c r="Z17" s="2" t="inlineStr"/>
       <c r="AA17" s="2" t="inlineStr"/>
-      <c r="AB17" s="2" t="n">
-        <v>0</v>
+      <c r="AB17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AC17" s="2" t="inlineStr"/>
     </row>
@@ -1603,8 +1635,10 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr"/>
       <c r="AA18" t="inlineStr"/>
-      <c r="AB18" t="n">
-        <v>0</v>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AC18" t="inlineStr"/>
     </row>
@@ -1672,8 +1706,10 @@
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr"/>
       <c r="AA19" t="inlineStr"/>
-      <c r="AB19" t="n">
-        <v>0</v>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AC19" t="inlineStr"/>
     </row>
@@ -1729,8 +1765,10 @@
       <c r="Y20" s="2" t="inlineStr"/>
       <c r="Z20" s="2" t="inlineStr"/>
       <c r="AA20" s="2" t="inlineStr"/>
-      <c r="AB20" s="2" t="n">
-        <v>0</v>
+      <c r="AB20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AC20" s="2" t="inlineStr"/>
     </row>
@@ -1794,8 +1832,10 @@
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr"/>
       <c r="AA21" t="inlineStr"/>
-      <c r="AB21" t="n">
-        <v>0</v>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AC21" t="inlineStr"/>
     </row>
@@ -1863,8 +1903,10 @@
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="inlineStr"/>
-      <c r="AB22" t="n">
-        <v>0</v>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AC22" t="inlineStr"/>
     </row>
@@ -1928,8 +1970,10 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr"/>
       <c r="AA23" t="inlineStr"/>
-      <c r="AB23" t="n">
-        <v>0</v>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AC23" t="inlineStr"/>
     </row>
@@ -1993,8 +2037,10 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr"/>
       <c r="AA24" t="inlineStr"/>
-      <c r="AB24" t="n">
-        <v>0</v>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AC24" t="inlineStr"/>
     </row>
@@ -2054,8 +2100,10 @@
       <c r="Y25" s="2" t="inlineStr"/>
       <c r="Z25" s="2" t="inlineStr"/>
       <c r="AA25" s="2" t="inlineStr"/>
-      <c r="AB25" s="2" t="n">
-        <v>0</v>
+      <c r="AB25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AC25" s="2" t="inlineStr"/>
     </row>
@@ -2115,8 +2163,10 @@
       <c r="Y26" s="2" t="inlineStr"/>
       <c r="Z26" s="2" t="inlineStr"/>
       <c r="AA26" s="2" t="inlineStr"/>
-      <c r="AB26" s="2" t="n">
-        <v>0</v>
+      <c r="AB26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AC26" s="2" t="inlineStr"/>
     </row>
@@ -2180,8 +2230,10 @@
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="inlineStr"/>
-      <c r="AB27" t="n">
-        <v>0</v>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AC27" t="inlineStr"/>
     </row>
@@ -2245,8 +2297,10 @@
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="inlineStr"/>
-      <c r="AB28" t="n">
-        <v>0</v>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AC28" t="inlineStr"/>
     </row>
@@ -2302,8 +2356,10 @@
       <c r="Y29" s="2" t="inlineStr"/>
       <c r="Z29" s="2" t="inlineStr"/>
       <c r="AA29" s="2" t="inlineStr"/>
-      <c r="AB29" s="2" t="n">
-        <v>0</v>
+      <c r="AB29" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AC29" s="2" t="inlineStr"/>
     </row>
@@ -2363,8 +2419,10 @@
       <c r="Y30" s="2" t="inlineStr"/>
       <c r="Z30" s="2" t="inlineStr"/>
       <c r="AA30" s="2" t="inlineStr"/>
-      <c r="AB30" s="2" t="n">
-        <v>0</v>
+      <c r="AB30" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AC30" s="2" t="inlineStr"/>
     </row>
@@ -2420,8 +2478,10 @@
       <c r="Y31" s="2" t="inlineStr"/>
       <c r="Z31" s="2" t="inlineStr"/>
       <c r="AA31" s="2" t="inlineStr"/>
-      <c r="AB31" s="2" t="n">
-        <v>0</v>
+      <c r="AB31" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AC31" s="2" t="inlineStr"/>
     </row>
@@ -2477,8 +2537,10 @@
       <c r="Y32" s="2" t="inlineStr"/>
       <c r="Z32" s="2" t="inlineStr"/>
       <c r="AA32" s="2" t="inlineStr"/>
-      <c r="AB32" s="2" t="n">
-        <v>0</v>
+      <c r="AB32" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AC32" s="2" t="inlineStr"/>
     </row>
@@ -2538,8 +2600,10 @@
       <c r="Y33" s="2" t="inlineStr"/>
       <c r="Z33" s="2" t="inlineStr"/>
       <c r="AA33" s="2" t="inlineStr"/>
-      <c r="AB33" s="2" t="n">
-        <v>0</v>
+      <c r="AB33" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AC33" s="2" t="inlineStr"/>
     </row>
@@ -2595,8 +2659,10 @@
       <c r="Y34" s="2" t="inlineStr"/>
       <c r="Z34" s="2" t="inlineStr"/>
       <c r="AA34" s="2" t="inlineStr"/>
-      <c r="AB34" s="2" t="n">
-        <v>0</v>
+      <c r="AB34" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AC34" s="2" t="inlineStr"/>
     </row>
@@ -2656,8 +2722,10 @@
       <c r="Y35" s="2" t="inlineStr"/>
       <c r="Z35" s="2" t="inlineStr"/>
       <c r="AA35" s="2" t="inlineStr"/>
-      <c r="AB35" s="2" t="n">
-        <v>0</v>
+      <c r="AB35" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AC35" s="2" t="inlineStr"/>
     </row>
@@ -2717,8 +2785,10 @@
       <c r="Y36" s="2" t="inlineStr"/>
       <c r="Z36" s="2" t="inlineStr"/>
       <c r="AA36" s="2" t="inlineStr"/>
-      <c r="AB36" s="2" t="n">
-        <v>0</v>
+      <c r="AB36" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AC36" s="2" t="inlineStr"/>
     </row>
@@ -2778,8 +2848,10 @@
       <c r="Y37" s="2" t="inlineStr"/>
       <c r="Z37" s="2" t="inlineStr"/>
       <c r="AA37" s="2" t="inlineStr"/>
-      <c r="AB37" s="2" t="n">
-        <v>0</v>
+      <c r="AB37" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AC37" s="2" t="inlineStr"/>
     </row>
@@ -2835,8 +2907,10 @@
       <c r="Y38" s="2" t="inlineStr"/>
       <c r="Z38" s="2" t="inlineStr"/>
       <c r="AA38" s="2" t="inlineStr"/>
-      <c r="AB38" s="2" t="n">
-        <v>0</v>
+      <c r="AB38" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AC38" s="2" t="inlineStr"/>
     </row>
@@ -2892,8 +2966,10 @@
       <c r="Y39" s="2" t="inlineStr"/>
       <c r="Z39" s="2" t="inlineStr"/>
       <c r="AA39" s="2" t="inlineStr"/>
-      <c r="AB39" s="2" t="n">
-        <v>0</v>
+      <c r="AB39" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AC39" s="2" t="inlineStr"/>
     </row>
@@ -2957,8 +3033,10 @@
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr"/>
       <c r="AA40" t="inlineStr"/>
-      <c r="AB40" t="n">
-        <v>0</v>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AC40" t="inlineStr"/>
     </row>
@@ -3014,8 +3092,10 @@
       <c r="Y41" s="2" t="inlineStr"/>
       <c r="Z41" s="2" t="inlineStr"/>
       <c r="AA41" s="2" t="inlineStr"/>
-      <c r="AB41" s="2" t="n">
-        <v>0</v>
+      <c r="AB41" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AC41" s="2" t="inlineStr"/>
     </row>
@@ -3071,8 +3151,10 @@
       <c r="Y42" s="2" t="inlineStr"/>
       <c r="Z42" s="2" t="inlineStr"/>
       <c r="AA42" s="2" t="inlineStr"/>
-      <c r="AB42" s="2" t="n">
-        <v>0</v>
+      <c r="AB42" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AC42" s="2" t="inlineStr"/>
     </row>
@@ -3128,8 +3210,10 @@
       <c r="Y43" s="2" t="inlineStr"/>
       <c r="Z43" s="2" t="inlineStr"/>
       <c r="AA43" s="2" t="inlineStr"/>
-      <c r="AB43" s="2" t="n">
-        <v>0</v>
+      <c r="AB43" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AC43" s="2" t="inlineStr"/>
     </row>
@@ -3193,8 +3277,10 @@
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr"/>
       <c r="AA44" t="inlineStr"/>
-      <c r="AB44" t="n">
-        <v>0</v>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AC44" t="inlineStr"/>
     </row>
@@ -3250,8 +3336,10 @@
       <c r="Y45" s="2" t="inlineStr"/>
       <c r="Z45" s="2" t="inlineStr"/>
       <c r="AA45" s="2" t="inlineStr"/>
-      <c r="AB45" s="2" t="n">
-        <v>0</v>
+      <c r="AB45" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AC45" s="2" t="inlineStr"/>
     </row>
@@ -3307,8 +3395,10 @@
       <c r="Y46" s="2" t="inlineStr"/>
       <c r="Z46" s="2" t="inlineStr"/>
       <c r="AA46" s="2" t="inlineStr"/>
-      <c r="AB46" s="2" t="n">
-        <v>0</v>
+      <c r="AB46" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AC46" s="2" t="inlineStr"/>
     </row>
@@ -3368,8 +3458,10 @@
       <c r="Y47" s="2" t="inlineStr"/>
       <c r="Z47" s="2" t="inlineStr"/>
       <c r="AA47" s="2" t="inlineStr"/>
-      <c r="AB47" s="2" t="n">
-        <v>0</v>
+      <c r="AB47" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AC47" s="2" t="inlineStr"/>
     </row>
@@ -3433,8 +3525,10 @@
       <c r="Y48" s="2" t="inlineStr"/>
       <c r="Z48" s="2" t="inlineStr"/>
       <c r="AA48" s="2" t="inlineStr"/>
-      <c r="AB48" s="2" t="n">
-        <v>0</v>
+      <c r="AB48" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AC48" s="2" t="inlineStr"/>
     </row>
@@ -3502,8 +3596,10 @@
       <c r="Y49" s="2" t="inlineStr"/>
       <c r="Z49" s="2" t="inlineStr"/>
       <c r="AA49" s="2" t="inlineStr"/>
-      <c r="AB49" s="2" t="n">
-        <v>0</v>
+      <c r="AB49" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AC49" s="2" t="inlineStr"/>
     </row>
@@ -3567,8 +3663,10 @@
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr"/>
       <c r="AA50" t="inlineStr"/>
-      <c r="AB50" t="n">
-        <v>0</v>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AC50" t="inlineStr"/>
     </row>
@@ -3628,8 +3726,10 @@
       <c r="Y51" s="2" t="inlineStr"/>
       <c r="Z51" s="2" t="inlineStr"/>
       <c r="AA51" s="2" t="inlineStr"/>
-      <c r="AB51" s="2" t="n">
-        <v>0</v>
+      <c r="AB51" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AC51" s="2" t="inlineStr"/>
     </row>
@@ -3697,8 +3797,10 @@
       <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="inlineStr"/>
       <c r="AA52" t="inlineStr"/>
-      <c r="AB52" t="n">
-        <v>0</v>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AC52" t="inlineStr"/>
     </row>
@@ -3758,8 +3860,10 @@
       <c r="Y53" s="2" t="inlineStr"/>
       <c r="Z53" s="2" t="inlineStr"/>
       <c r="AA53" s="2" t="inlineStr"/>
-      <c r="AB53" s="2" t="n">
-        <v>0</v>
+      <c r="AB53" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AC53" s="2" t="inlineStr"/>
     </row>
@@ -3823,8 +3927,10 @@
       <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr"/>
       <c r="AA54" t="inlineStr"/>
-      <c r="AB54" t="n">
-        <v>0</v>
+      <c r="AB54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AC54" t="inlineStr"/>
     </row>
@@ -3884,8 +3990,10 @@
       <c r="Y55" s="2" t="inlineStr"/>
       <c r="Z55" s="2" t="inlineStr"/>
       <c r="AA55" s="2" t="inlineStr"/>
-      <c r="AB55" s="2" t="n">
-        <v>0</v>
+      <c r="AB55" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AC55" s="2" t="inlineStr"/>
     </row>
@@ -3949,8 +4057,10 @@
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr"/>
       <c r="AA56" t="inlineStr"/>
-      <c r="AB56" t="n">
-        <v>0</v>
+      <c r="AB56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AC56" t="inlineStr"/>
     </row>
@@ -4014,8 +4124,10 @@
       <c r="Y57" t="inlineStr"/>
       <c r="Z57" t="inlineStr"/>
       <c r="AA57" t="inlineStr"/>
-      <c r="AB57" t="n">
-        <v>0</v>
+      <c r="AB57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AC57" t="inlineStr"/>
     </row>
@@ -4079,8 +4191,10 @@
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr"/>
       <c r="AA58" t="inlineStr"/>
-      <c r="AB58" t="n">
-        <v>0</v>
+      <c r="AB58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AC58" t="inlineStr"/>
     </row>
@@ -4140,8 +4254,10 @@
       <c r="Y59" s="2" t="inlineStr"/>
       <c r="Z59" s="2" t="inlineStr"/>
       <c r="AA59" s="2" t="inlineStr"/>
-      <c r="AB59" s="2" t="n">
-        <v>0</v>
+      <c r="AB59" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AC59" s="2" t="inlineStr"/>
     </row>
@@ -4209,8 +4325,10 @@
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr"/>
       <c r="AA60" t="inlineStr"/>
-      <c r="AB60" t="n">
-        <v>0</v>
+      <c r="AB60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AC60" t="inlineStr"/>
     </row>
@@ -4270,8 +4388,10 @@
       <c r="Y61" s="2" t="inlineStr"/>
       <c r="Z61" s="2" t="inlineStr"/>
       <c r="AA61" s="2" t="inlineStr"/>
-      <c r="AB61" s="2" t="n">
-        <v>0</v>
+      <c r="AB61" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AC61" s="2" t="inlineStr"/>
     </row>
@@ -4331,8 +4451,10 @@
       <c r="Y62" s="2" t="inlineStr"/>
       <c r="Z62" s="2" t="inlineStr"/>
       <c r="AA62" s="2" t="inlineStr"/>
-      <c r="AB62" s="2" t="n">
-        <v>0</v>
+      <c r="AB62" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AC62" s="2" t="inlineStr"/>
     </row>
@@ -4392,8 +4514,10 @@
       <c r="Y63" s="2" t="inlineStr"/>
       <c r="Z63" s="2" t="inlineStr"/>
       <c r="AA63" s="2" t="inlineStr"/>
-      <c r="AB63" s="2" t="n">
-        <v>0</v>
+      <c r="AB63" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AC63" s="2" t="inlineStr"/>
     </row>
@@ -4449,8 +4573,10 @@
       <c r="Y64" s="2" t="inlineStr"/>
       <c r="Z64" s="2" t="inlineStr"/>
       <c r="AA64" s="2" t="inlineStr"/>
-      <c r="AB64" s="2" t="n">
-        <v>0</v>
+      <c r="AB64" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AC64" s="2" t="inlineStr"/>
     </row>
@@ -4510,8 +4636,10 @@
       <c r="Y65" s="2" t="inlineStr"/>
       <c r="Z65" s="2" t="inlineStr"/>
       <c r="AA65" s="2" t="inlineStr"/>
-      <c r="AB65" s="2" t="n">
-        <v>0</v>
+      <c r="AB65" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AC65" s="2" t="inlineStr"/>
     </row>
@@ -4575,8 +4703,10 @@
       <c r="Y66" s="2" t="inlineStr"/>
       <c r="Z66" s="2" t="inlineStr"/>
       <c r="AA66" s="2" t="inlineStr"/>
-      <c r="AB66" s="2" t="n">
-        <v>0</v>
+      <c r="AB66" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AC66" s="2" t="inlineStr"/>
     </row>
@@ -4632,8 +4762,10 @@
       <c r="Y67" s="2" t="inlineStr"/>
       <c r="Z67" s="2" t="inlineStr"/>
       <c r="AA67" s="2" t="inlineStr"/>
-      <c r="AB67" s="2" t="n">
-        <v>0</v>
+      <c r="AB67" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AC67" s="2" t="inlineStr"/>
     </row>
@@ -4697,8 +4829,10 @@
       <c r="Y68" t="inlineStr"/>
       <c r="Z68" t="inlineStr"/>
       <c r="AA68" t="inlineStr"/>
-      <c r="AB68" t="n">
-        <v>0</v>
+      <c r="AB68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AC68" t="inlineStr"/>
     </row>
@@ -4754,8 +4888,10 @@
       <c r="Y69" s="2" t="inlineStr"/>
       <c r="Z69" s="2" t="inlineStr"/>
       <c r="AA69" s="2" t="inlineStr"/>
-      <c r="AB69" s="2" t="n">
-        <v>0</v>
+      <c r="AB69" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AC69" s="2" t="inlineStr"/>
     </row>
@@ -4811,8 +4947,10 @@
       <c r="Y70" s="2" t="inlineStr"/>
       <c r="Z70" s="2" t="inlineStr"/>
       <c r="AA70" s="2" t="inlineStr"/>
-      <c r="AB70" s="2" t="n">
-        <v>0</v>
+      <c r="AB70" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AC70" s="2" t="inlineStr"/>
     </row>
@@ -4872,8 +5010,10 @@
       <c r="Y71" s="2" t="inlineStr"/>
       <c r="Z71" s="2" t="inlineStr"/>
       <c r="AA71" s="2" t="inlineStr"/>
-      <c r="AB71" s="2" t="n">
-        <v>0</v>
+      <c r="AB71" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AC71" s="2" t="inlineStr"/>
     </row>
